--- a/Tables/Appendix_13_3.xlsx
+++ b/Tables/Appendix_13_3.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,6 +877,110 @@
       </c>
       <c r="P9" t="n">
         <v>5.019118507875179</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Skew</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3502788600387839</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.092463188119362</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.713979103826301</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.210797010222761</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6944911610681104</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.394035619293865</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2001606882895814</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3674619054873834</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.258071890030949</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3365822715322116</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7353589931210215</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.511197022239119</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4736288758556361</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.143898948365168</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10.01327340187844</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Kurtosis</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2876873323823426</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.330056299220945</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110.5228681431702</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.136493721616656</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.999151271954787</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.21392181720931</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.07749224164000612</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3452802737193981</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.821889990219968</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.183023784537637</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.130208870215304</v>
+      </c>
+      <c r="M11" t="n">
+        <v>27.77792862281756</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3511680281445506</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.695043242291947</v>
+      </c>
+      <c r="P11" t="n">
+        <v>214.304405438146</v>
       </c>
     </row>
   </sheetData>
